--- a/biology/Origine et évolution du vivant/Marie-Anne_Félix/Marie-Anne_Félix.xlsx
+++ b/biology/Origine et évolution du vivant/Marie-Anne_Félix/Marie-Anne_Félix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marie-Anne_F%C3%A9lix</t>
+          <t>Marie-Anne_Félix</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie-Anne Félix est une chercheuse française spécialisée en génétique évolutive.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marie-Anne_F%C3%A9lix</t>
+          <t>Marie-Anne_Félix</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Famille et formation
-Carrière professionnelle
-Fin 2011, Marie-Anne Félix rejoint l'Institut de biologie de l'École normale supérieure[1].
-Travaux de recherche</t>
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fin 2011, Marie-Anne Félix rejoint l'Institut de biologie de l'École normale supérieure.
+</t>
         </is>
       </c>
     </row>
@@ -526,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marie-Anne_F%C3%A9lix</t>
+          <t>Marie-Anne_Félix</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +560,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir reçu la médaille de bronze du CNRS en 1994, Marie-Anne Félix reçoit la médaille d'argent du CNRS en 2012[1].
-Le 31 décembre 2018, elle est nommée au grade de chevalier dans l'ordre national de la Légion d'honneur au titre de « directrice de recherche, responsable d’équipe à l’Institut de biologie de l’École normale supérieure ; 28 ans de services »[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir reçu la médaille de bronze du CNRS en 1994, Marie-Anne Félix reçoit la médaille d'argent du CNRS en 2012.
+Le 31 décembre 2018, elle est nommée au grade de chevalier dans l'ordre national de la Légion d'honneur au titre de « directrice de recherche, responsable d’équipe à l’Institut de biologie de l’École normale supérieure ; 28 ans de services ».
 </t>
         </is>
       </c>
